--- a/api/dataset/testresults.xlsx
+++ b/api/dataset/testresults.xlsx
@@ -8,13 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Desktop\MailBean\api\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2662752F-880F-422C-A4EB-55DEEC1376DD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B618CDA8-7A61-4A50-9D87-DFBCCF3605E4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DB66FC03-7D46-41FE-9CC8-9B98A0441633}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$G$110</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -700,6 +704,3175 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Mean</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> FNR of single-layer perceptron with varying hidden neurons</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$16:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$16:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.14833940000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14627300000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14265679999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13992620000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14169740000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14258299999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8358-4C5D-93CE-064658CB76A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="672939280"/>
+        <c:axId val="672939608"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="672939280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of hidden neurons</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="672939608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="672939608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>FNR</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> (lower is better)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="672939280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Mean FPR</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> of single-layer perceptron with varying hidden neurons</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$L$16:$L$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$M$16:$M$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.8921199999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8412999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8249499999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7759100000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7614000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7232600000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-598D-427D-9E1E-3AB278D29EA2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="374304264"/>
+        <c:axId val="374304592"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="374304264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> of hidden neurons</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="374304592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="374304592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>FPR (lower is better)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="374304264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Mean F1</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> score of single-layer perceptron with varying hidden neurons</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$V$16:$V$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$W$16:$W$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.88204140000000009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.88567790000000013</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88636689999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8887775</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8881812</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.88836119999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-26C3-45C5-8A61-0F75FA4477A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="473179720"/>
+        <c:axId val="672002272"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="473179720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of hidden neurons</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="672002272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="672002272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>F1</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> score (higher is better)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="473179720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>347662</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>42862</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DDE6CA4-DC02-44BC-90E6-465B1A571360}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5484EAD2-F32D-4428-A454-4368D8B011D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EDB6E0D2-06A7-4E8B-B988-CFF4A0364E65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -999,10 +4172,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{291A7406-7E0D-4813-8D25-FD91D6016BE9}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:P110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1155,7 +4329,7 @@
         <v>1.8522E-2</v>
       </c>
       <c r="G4" s="19">
-        <v>0.27380100000000002</v>
+        <v>0.280443</v>
       </c>
       <c r="I4" s="15">
         <v>1</v>
@@ -1467,7 +4641,7 @@
         <v>0.80344700000000002</v>
       </c>
       <c r="F11" s="19">
-        <v>1.8703000000000001E-2</v>
+        <v>1.7977E-2</v>
       </c>
       <c r="G11" s="19">
         <v>0.27749099999999999</v>
@@ -1515,7 +4689,7 @@
         <v>1.8522E-2</v>
       </c>
       <c r="G12" s="19">
-        <v>0.28118100000000001</v>
+        <v>0.280443</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -1790,8 +4964,8 @@
       <c r="E19" s="17">
         <v>0.92561300000000002</v>
       </c>
-      <c r="F19" s="17">
-        <v>8.3529999999999993E-3</v>
+      <c r="F19" s="19">
+        <v>1.7977E-2</v>
       </c>
       <c r="G19" s="17">
         <v>0.109225</v>
@@ -1838,8 +5012,8 @@
       <c r="F20" s="5">
         <v>5.6290000000000003E-3</v>
       </c>
-      <c r="G20" s="5">
-        <v>9.9630999999999997E-2</v>
+      <c r="G20" s="19">
+        <v>0.280443</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -2213,8 +5387,8 @@
       <c r="E31" s="5">
         <v>0.94357000000000002</v>
       </c>
-      <c r="F31" s="5">
-        <v>3.813E-3</v>
+      <c r="F31" s="19">
+        <v>1.7977E-2</v>
       </c>
       <c r="G31" s="5">
         <v>9.2989000000000002E-2</v>
@@ -2261,8 +5435,8 @@
       <c r="F32" s="5">
         <v>7.9900000000000006E-3</v>
       </c>
-      <c r="G32" s="5">
-        <v>7.8229000000000007E-2</v>
+      <c r="G32" s="19">
+        <v>0.280443</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -3177,11 +6351,11 @@
       <c r="E63" s="22">
         <v>0.89189200000000002</v>
       </c>
-      <c r="F63" s="22">
-        <v>2.1971999999999998E-2</v>
-      </c>
-      <c r="G63" s="22">
-        <v>0.123247</v>
+      <c r="F63" s="19">
+        <v>1.7977E-2</v>
+      </c>
+      <c r="G63" s="19">
+        <v>0.280443</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -3235,22 +6409,22 @@
         <v>52</v>
       </c>
       <c r="B66" s="22">
-        <v>0.92407499999999998</v>
+        <v>0.95613499999999996</v>
       </c>
       <c r="C66" s="22">
-        <v>0.77800000000000002</v>
+        <v>0.90229000000000004</v>
       </c>
       <c r="D66" s="22">
-        <v>0.86125499999999999</v>
+        <v>0.87232500000000002</v>
       </c>
       <c r="E66" s="22">
-        <v>0.81751300000000005</v>
+        <v>0.876247</v>
       </c>
       <c r="F66" s="22">
-        <v>6.0468000000000001E-2</v>
+        <v>2.3243E-2</v>
       </c>
       <c r="G66" s="22">
-        <v>0.13874500000000001</v>
+        <v>0.12767500000000001</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -3361,11 +6535,11 @@
       <c r="E71" s="22">
         <v>0.87819100000000005</v>
       </c>
-      <c r="F71" s="22">
-        <v>3.3230000000000003E-2</v>
-      </c>
-      <c r="G71" s="22">
-        <v>0.111439</v>
+      <c r="F71" s="19">
+        <v>1.7977E-2</v>
+      </c>
+      <c r="G71" s="19">
+        <v>0.280443</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -3545,11 +6719,11 @@
       <c r="E79" s="22">
         <v>0.89108200000000004</v>
       </c>
-      <c r="F79" s="22">
-        <v>1.9248000000000001E-2</v>
-      </c>
-      <c r="G79" s="22">
-        <v>0.133579</v>
+      <c r="F79" s="19">
+        <v>1.7977E-2</v>
+      </c>
+      <c r="G79" s="19">
+        <v>0.280443</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -3729,11 +6903,11 @@
       <c r="E87" s="22">
         <v>0.88326400000000005</v>
       </c>
-      <c r="F87" s="22">
-        <v>2.2335000000000001E-2</v>
-      </c>
-      <c r="G87" s="22">
-        <v>0.137269</v>
+      <c r="F87" s="19">
+        <v>1.7977E-2</v>
+      </c>
+      <c r="G87" s="19">
+        <v>0.280443</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
@@ -3898,7 +7072,7 @@
       </c>
       <c r="I94" s="25"/>
       <c r="J94" s="30"/>
-      <c r="K94" s="26"/>
+      <c r="K94" s="7"/>
       <c r="L94" s="26"/>
       <c r="M94" s="26"/>
       <c r="N94" s="26"/>
@@ -3920,11 +7094,11 @@
       <c r="E95" s="22">
         <v>0.89970099999999997</v>
       </c>
-      <c r="F95" s="22">
-        <v>2.0882999999999999E-2</v>
-      </c>
-      <c r="G95" s="22">
-        <v>0.112915</v>
+      <c r="F95" s="19">
+        <v>1.7977E-2</v>
+      </c>
+      <c r="G95" s="19">
+        <v>0.280443</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
@@ -4104,11 +7278,11 @@
       <c r="E103" s="22">
         <v>0.90085400000000004</v>
       </c>
-      <c r="F103" s="22">
-        <v>2.2697999999999999E-2</v>
-      </c>
-      <c r="G103" s="22">
-        <v>0.104797</v>
+      <c r="F103" s="19">
+        <v>1.7977E-2</v>
+      </c>
+      <c r="G103" s="19">
+        <v>0.280443</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -4273,6 +7447,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:G110" xr:uid="{671542FE-DB56-45FF-A487-549ABEF3CDD9}">
+    <filterColumn colId="0">
+      <customFilters>
+        <customFilter val="**"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="6">
     <mergeCell ref="I33:O33"/>
     <mergeCell ref="A1:G1"/>
@@ -4284,4 +7465,775 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C49ECF0-7860-4786-BAE4-064ED7CFE324}">
+  <dimension ref="A1:AA21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>6</v>
+      </c>
+      <c r="B1">
+        <v>12</v>
+      </c>
+      <c r="C1">
+        <v>24</v>
+      </c>
+      <c r="D1">
+        <v>36</v>
+      </c>
+      <c r="E1">
+        <v>48</v>
+      </c>
+      <c r="F1">
+        <v>60</v>
+      </c>
+      <c r="L1">
+        <v>6</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>24</v>
+      </c>
+      <c r="O1">
+        <v>36</v>
+      </c>
+      <c r="P1">
+        <v>48</v>
+      </c>
+      <c r="Q1">
+        <v>60</v>
+      </c>
+      <c r="V1">
+        <v>6</v>
+      </c>
+      <c r="W1">
+        <v>12</v>
+      </c>
+      <c r="X1">
+        <v>24</v>
+      </c>
+      <c r="Y1">
+        <v>36</v>
+      </c>
+      <c r="Z1">
+        <v>48</v>
+      </c>
+      <c r="AA1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="19">
+        <v>0.280443</v>
+      </c>
+      <c r="B2" s="19">
+        <v>0.280443</v>
+      </c>
+      <c r="C2" s="19">
+        <v>0.28118100000000001</v>
+      </c>
+      <c r="D2" s="19">
+        <v>0.280443</v>
+      </c>
+      <c r="E2" s="19">
+        <v>0.28339500000000001</v>
+      </c>
+      <c r="F2" s="19">
+        <v>0.28191899999999998</v>
+      </c>
+      <c r="L2" s="19">
+        <v>1.7977E-2</v>
+      </c>
+      <c r="M2" s="19">
+        <v>1.8522E-2</v>
+      </c>
+      <c r="N2" s="19">
+        <v>1.8339999999999999E-2</v>
+      </c>
+      <c r="O2" s="19">
+        <v>1.8703000000000001E-2</v>
+      </c>
+      <c r="P2" s="19">
+        <v>1.8159000000000002E-2</v>
+      </c>
+      <c r="Q2" s="19">
+        <v>1.8522E-2</v>
+      </c>
+      <c r="V2" s="19">
+        <v>0.80279999999999996</v>
+      </c>
+      <c r="W2" s="19">
+        <v>0.80622700000000003</v>
+      </c>
+      <c r="X2" s="19">
+        <v>0.80164599999999997</v>
+      </c>
+      <c r="Y2" s="19">
+        <v>0.80147999999999997</v>
+      </c>
+      <c r="Z2" s="19">
+        <v>0.80049499999999996</v>
+      </c>
+      <c r="AA2" s="19">
+        <v>0.80082299999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="19">
+        <v>0.27749099999999999</v>
+      </c>
+      <c r="B3" s="19">
+        <v>0.28118100000000001</v>
+      </c>
+      <c r="C3" s="19">
+        <v>0.28265699999999999</v>
+      </c>
+      <c r="D3" s="19">
+        <v>0.28339500000000001</v>
+      </c>
+      <c r="E3" s="19">
+        <v>0.278229</v>
+      </c>
+      <c r="F3" s="19">
+        <v>0.28413300000000002</v>
+      </c>
+      <c r="L3" s="19">
+        <v>1.8703000000000001E-2</v>
+      </c>
+      <c r="M3" s="19">
+        <v>1.8522E-2</v>
+      </c>
+      <c r="N3" s="19">
+        <v>1.8159000000000002E-2</v>
+      </c>
+      <c r="O3" s="19">
+        <v>1.8339999999999999E-2</v>
+      </c>
+      <c r="P3" s="19">
+        <v>1.8339999999999999E-2</v>
+      </c>
+      <c r="Q3" s="19">
+        <v>1.8703000000000001E-2</v>
+      </c>
+      <c r="V3" s="19">
+        <v>0.80344700000000002</v>
+      </c>
+      <c r="W3" s="19">
+        <v>0.80131600000000003</v>
+      </c>
+      <c r="X3" s="19">
+        <v>0.80098899999999995</v>
+      </c>
+      <c r="Y3" s="19">
+        <v>0.80016500000000002</v>
+      </c>
+      <c r="Z3" s="19">
+        <v>0.80361499999999997</v>
+      </c>
+      <c r="AA3" s="19">
+        <v>0.79901200000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
+        <v>0.109225</v>
+      </c>
+      <c r="B4" s="5">
+        <v>9.9630999999999997E-2</v>
+      </c>
+      <c r="C4" s="5">
+        <v>7.6014999999999999E-2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>8.5609000000000005E-2</v>
+      </c>
+      <c r="E4" s="5">
+        <v>7.0111000000000007E-2</v>
+      </c>
+      <c r="F4" s="5">
+        <v>8.0443000000000001E-2</v>
+      </c>
+      <c r="L4" s="17">
+        <v>8.3529999999999993E-3</v>
+      </c>
+      <c r="M4" s="5">
+        <v>5.6290000000000003E-3</v>
+      </c>
+      <c r="N4" s="5">
+        <v>5.8110000000000002E-3</v>
+      </c>
+      <c r="O4" s="5">
+        <v>6.1739999999999998E-3</v>
+      </c>
+      <c r="P4" s="5">
+        <v>6.1739999999999998E-3</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>5.9919999999999999E-3</v>
+      </c>
+      <c r="V4" s="17">
+        <v>0.92561300000000002</v>
+      </c>
+      <c r="W4" s="5">
+        <v>0.93630100000000005</v>
+      </c>
+      <c r="X4" s="5">
+        <v>0.94884400000000002</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>0.94292200000000004</v>
+      </c>
+      <c r="Z4" s="5">
+        <v>0.95130199999999998</v>
+      </c>
+      <c r="AA4" s="5">
+        <v>0.94608999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>9.2989000000000002E-2</v>
+      </c>
+      <c r="B5" s="5">
+        <v>7.8229000000000007E-2</v>
+      </c>
+      <c r="C5" s="9">
+        <v>7.6753000000000002E-2</v>
+      </c>
+      <c r="D5" s="9">
+        <v>6.7896999999999999E-2</v>
+      </c>
+      <c r="E5" s="9">
+        <v>7.8229000000000007E-2</v>
+      </c>
+      <c r="F5" s="9">
+        <v>7.5276999999999997E-2</v>
+      </c>
+      <c r="L5" s="5">
+        <v>3.813E-3</v>
+      </c>
+      <c r="M5" s="5">
+        <v>7.9900000000000006E-3</v>
+      </c>
+      <c r="N5" s="9">
+        <v>5.6290000000000003E-3</v>
+      </c>
+      <c r="O5" s="9">
+        <v>5.8110000000000002E-3</v>
+      </c>
+      <c r="P5" s="9">
+        <v>5.084E-3</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>5.084E-3</v>
+      </c>
+      <c r="V5" s="5">
+        <v>0.94357000000000002</v>
+      </c>
+      <c r="W5" s="5">
+        <v>0.943353</v>
+      </c>
+      <c r="X5" s="9">
+        <v>0.94880500000000001</v>
+      </c>
+      <c r="Y5" s="9">
+        <v>0.95320800000000006</v>
+      </c>
+      <c r="Z5" s="9">
+        <v>0.94908800000000004</v>
+      </c>
+      <c r="AA5" s="9">
+        <v>0.95068299999999994</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="22">
+        <v>0.123247</v>
+      </c>
+      <c r="B6" s="22">
+        <v>0.123247</v>
+      </c>
+      <c r="C6" s="22">
+        <v>0.124723</v>
+      </c>
+      <c r="D6" s="22">
+        <v>0.12767500000000001</v>
+      </c>
+      <c r="E6" s="22">
+        <v>0.12693699999999999</v>
+      </c>
+      <c r="F6" s="22">
+        <v>0.14317299999999999</v>
+      </c>
+      <c r="L6" s="22">
+        <v>2.1971999999999998E-2</v>
+      </c>
+      <c r="M6" s="22">
+        <v>2.1246000000000001E-2</v>
+      </c>
+      <c r="N6" s="22">
+        <v>3.0143E-2</v>
+      </c>
+      <c r="O6" s="22">
+        <v>2.3243E-2</v>
+      </c>
+      <c r="P6" s="22">
+        <v>2.5241E-2</v>
+      </c>
+      <c r="Q6" s="22">
+        <v>3.1050999999999999E-2</v>
+      </c>
+      <c r="V6" s="22">
+        <v>0.89189200000000002</v>
+      </c>
+      <c r="W6" s="22">
+        <v>0.89779100000000001</v>
+      </c>
+      <c r="X6" s="22">
+        <v>0.876247</v>
+      </c>
+      <c r="Y6" s="22">
+        <v>0.88705400000000001</v>
+      </c>
+      <c r="Z6" s="22">
+        <v>0.88382499999999997</v>
+      </c>
+      <c r="AA6" s="22">
+        <v>0.86416099999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="22">
+        <v>0.111439</v>
+      </c>
+      <c r="B7" s="22">
+        <v>0.111439</v>
+      </c>
+      <c r="C7" s="22">
+        <v>0.101107</v>
+      </c>
+      <c r="D7" s="22">
+        <v>0.115867</v>
+      </c>
+      <c r="E7" s="22">
+        <v>0.133579</v>
+      </c>
+      <c r="F7" s="22">
+        <v>0.133579</v>
+      </c>
+      <c r="L7" s="22">
+        <v>3.3230000000000003E-2</v>
+      </c>
+      <c r="M7" s="22">
+        <v>3.0506999999999999E-2</v>
+      </c>
+      <c r="N7" s="22">
+        <v>3.1595999999999999E-2</v>
+      </c>
+      <c r="O7" s="22">
+        <v>3.1595999999999999E-2</v>
+      </c>
+      <c r="P7" s="22">
+        <v>3.8859999999999999E-2</v>
+      </c>
+      <c r="Q7" s="22">
+        <v>3.3049000000000002E-2</v>
+      </c>
+      <c r="V7" s="22">
+        <v>0.87819100000000005</v>
+      </c>
+      <c r="W7" s="22">
+        <v>0.88302199999999997</v>
+      </c>
+      <c r="X7" s="22">
+        <v>0.88678599999999996</v>
+      </c>
+      <c r="Y7" s="22">
+        <v>0.87862099999999999</v>
+      </c>
+      <c r="Z7" s="22">
+        <v>0.85599700000000001</v>
+      </c>
+      <c r="AA7" s="22">
+        <v>0.86610100000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="22">
+        <v>0.133579</v>
+      </c>
+      <c r="B8" s="22">
+        <v>0.133579</v>
+      </c>
+      <c r="C8" s="22">
+        <v>0.13505500000000001</v>
+      </c>
+      <c r="D8" s="22">
+        <v>0.10627300000000001</v>
+      </c>
+      <c r="E8" s="22">
+        <v>0.107749</v>
+      </c>
+      <c r="F8" s="22">
+        <v>0.11808100000000001</v>
+      </c>
+      <c r="L8" s="22">
+        <v>1.9248000000000001E-2</v>
+      </c>
+      <c r="M8" s="22">
+        <v>2.1971999999999998E-2</v>
+      </c>
+      <c r="N8" s="22">
+        <v>1.9975E-2</v>
+      </c>
+      <c r="O8" s="22">
+        <v>2.1427000000000002E-2</v>
+      </c>
+      <c r="P8" s="22">
+        <v>1.9975E-2</v>
+      </c>
+      <c r="Q8" s="22">
+        <v>1.9067000000000001E-2</v>
+      </c>
+      <c r="V8" s="22">
+        <v>0.89108200000000004</v>
+      </c>
+      <c r="W8" s="22">
+        <v>0.88181799999999999</v>
+      </c>
+      <c r="X8" s="22">
+        <v>0.88888900000000004</v>
+      </c>
+      <c r="Y8" s="22">
+        <v>0.90238499999999999</v>
+      </c>
+      <c r="Z8" s="22">
+        <v>0.90426300000000004</v>
+      </c>
+      <c r="AA8" s="22">
+        <v>0.90018799999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="22">
+        <v>0.137269</v>
+      </c>
+      <c r="B9" s="22">
+        <v>0.137269</v>
+      </c>
+      <c r="C9" s="22">
+        <v>0.13505500000000001</v>
+      </c>
+      <c r="D9" s="22">
+        <v>0.13284099999999999</v>
+      </c>
+      <c r="E9" s="22">
+        <v>0.14022100000000001</v>
+      </c>
+      <c r="F9" s="19">
+        <v>9.9630999999999997E-2</v>
+      </c>
+      <c r="L9" s="22">
+        <v>2.2335000000000001E-2</v>
+      </c>
+      <c r="M9" s="22">
+        <v>2.1609E-2</v>
+      </c>
+      <c r="N9" s="22">
+        <v>1.6343E-2</v>
+      </c>
+      <c r="O9" s="22">
+        <v>1.5435000000000001E-2</v>
+      </c>
+      <c r="P9" s="22">
+        <v>1.5072E-2</v>
+      </c>
+      <c r="Q9" s="19">
+        <v>1.4709E-2</v>
+      </c>
+      <c r="V9" s="22">
+        <v>0.88326400000000005</v>
+      </c>
+      <c r="W9" s="22">
+        <v>0.89380899999999996</v>
+      </c>
+      <c r="X9" s="22">
+        <v>0.89568199999999998</v>
+      </c>
+      <c r="Y9" s="22">
+        <v>0.89866199999999996</v>
+      </c>
+      <c r="Z9" s="22">
+        <v>0.89512100000000006</v>
+      </c>
+      <c r="AA9" s="19">
+        <v>0.91867500000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="22">
+        <v>0.112915</v>
+      </c>
+      <c r="B10" s="22">
+        <v>0.112915</v>
+      </c>
+      <c r="C10" s="22">
+        <v>0.112177</v>
+      </c>
+      <c r="D10" s="22">
+        <v>9.9630999999999997E-2</v>
+      </c>
+      <c r="E10" s="22">
+        <v>0.10258299999999999</v>
+      </c>
+      <c r="F10" s="22">
+        <v>0.109225</v>
+      </c>
+      <c r="L10" s="22">
+        <v>2.0882999999999999E-2</v>
+      </c>
+      <c r="M10" s="22">
+        <v>1.9429999999999999E-2</v>
+      </c>
+      <c r="N10" s="22">
+        <v>1.8703000000000001E-2</v>
+      </c>
+      <c r="O10" s="22">
+        <v>1.8159000000000002E-2</v>
+      </c>
+      <c r="P10" s="22">
+        <v>1.3436999999999999E-2</v>
+      </c>
+      <c r="Q10" s="22">
+        <v>1.4164E-2</v>
+      </c>
+      <c r="V10" s="22">
+        <v>0.89970099999999997</v>
+      </c>
+      <c r="W10" s="22">
+        <v>0.90445900000000001</v>
+      </c>
+      <c r="X10" s="22">
+        <v>0.90417099999999995</v>
+      </c>
+      <c r="Y10" s="22">
+        <v>0.91215000000000002</v>
+      </c>
+      <c r="Z10" s="22">
+        <v>0.91947100000000004</v>
+      </c>
+      <c r="AA10" s="22">
+        <v>0.91439400000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="22">
+        <v>0.104797</v>
+      </c>
+      <c r="B11" s="22">
+        <v>0.104797</v>
+      </c>
+      <c r="C11" s="22">
+        <v>0.101845</v>
+      </c>
+      <c r="D11" s="22">
+        <v>9.9630999999999997E-2</v>
+      </c>
+      <c r="E11" s="22">
+        <v>9.5940999999999999E-2</v>
+      </c>
+      <c r="F11" s="22">
+        <v>0.100369</v>
+      </c>
+      <c r="L11" s="22">
+        <v>2.2697999999999999E-2</v>
+      </c>
+      <c r="M11" s="22">
+        <v>1.8703000000000001E-2</v>
+      </c>
+      <c r="N11" s="22">
+        <v>1.7795999999999999E-2</v>
+      </c>
+      <c r="O11" s="22">
+        <v>1.8703000000000001E-2</v>
+      </c>
+      <c r="P11" s="22">
+        <v>1.5798E-2</v>
+      </c>
+      <c r="Q11" s="22">
+        <v>1.1985000000000001E-2</v>
+      </c>
+      <c r="V11" s="22">
+        <v>0.90085400000000004</v>
+      </c>
+      <c r="W11" s="22">
+        <v>0.90868300000000002</v>
+      </c>
+      <c r="X11" s="22">
+        <v>0.91161000000000003</v>
+      </c>
+      <c r="Y11" s="22">
+        <v>0.91112800000000005</v>
+      </c>
+      <c r="Z11" s="22">
+        <v>0.91863499999999998</v>
+      </c>
+      <c r="AA11" s="22">
+        <v>0.923485</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16">
+        <f>AVERAGE($A$2:$A$11)</f>
+        <v>0.14833940000000001</v>
+      </c>
+      <c r="L16">
+        <v>6</v>
+      </c>
+      <c r="M16">
+        <f>AVERAGE(L2:L11)</f>
+        <v>1.8921199999999999E-2</v>
+      </c>
+      <c r="V16">
+        <v>6</v>
+      </c>
+      <c r="W16">
+        <f>AVERAGE(V2:V11)</f>
+        <v>0.88204140000000009</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>12</v>
+      </c>
+      <c r="B17">
+        <f>AVERAGE($B$2:$B$11)</f>
+        <v>0.14627300000000004</v>
+      </c>
+      <c r="L17">
+        <v>12</v>
+      </c>
+      <c r="M17">
+        <f>AVERAGE(M2:M11)</f>
+        <v>1.8412999999999999E-2</v>
+      </c>
+      <c r="V17">
+        <v>12</v>
+      </c>
+      <c r="W17">
+        <f>AVERAGE(W2:W11)</f>
+        <v>0.88567790000000013</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>24</v>
+      </c>
+      <c r="B18">
+        <f>AVERAGE($C$2:$C$11)</f>
+        <v>0.14265679999999997</v>
+      </c>
+      <c r="L18">
+        <v>24</v>
+      </c>
+      <c r="M18">
+        <f>AVERAGE(N2:N11)</f>
+        <v>1.8249499999999998E-2</v>
+      </c>
+      <c r="V18">
+        <v>24</v>
+      </c>
+      <c r="W18">
+        <f>AVERAGE(X2:X11)</f>
+        <v>0.88636689999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>36</v>
+      </c>
+      <c r="B19">
+        <f>AVERAGE($D$2:$D$11)</f>
+        <v>0.13992620000000003</v>
+      </c>
+      <c r="L19">
+        <v>36</v>
+      </c>
+      <c r="M19">
+        <f>AVERAGE(O2:O11)</f>
+        <v>1.7759100000000003E-2</v>
+      </c>
+      <c r="V19">
+        <v>36</v>
+      </c>
+      <c r="W19">
+        <f>AVERAGE(Y2:Y11)</f>
+        <v>0.8887775</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>48</v>
+      </c>
+      <c r="B20">
+        <f>AVERAGE($E$2:$E$11)</f>
+        <v>0.14169740000000003</v>
+      </c>
+      <c r="L20">
+        <v>48</v>
+      </c>
+      <c r="M20">
+        <f>AVERAGE(P2:P11)</f>
+        <v>1.7614000000000001E-2</v>
+      </c>
+      <c r="V20">
+        <v>48</v>
+      </c>
+      <c r="W20">
+        <f>AVERAGE(Z2:Z11)</f>
+        <v>0.8881812</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>60</v>
+      </c>
+      <c r="B21">
+        <f>AVERAGE($F$2:$F$11)</f>
+        <v>0.14258299999999999</v>
+      </c>
+      <c r="L21">
+        <v>60</v>
+      </c>
+      <c r="M21">
+        <f>AVERAGE(Q2:Q11)</f>
+        <v>1.7232600000000001E-2</v>
+      </c>
+      <c r="V21">
+        <v>60</v>
+      </c>
+      <c r="W21">
+        <f>AVERAGE(AA2:AA11)</f>
+        <v>0.88836119999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>